--- a/src/test/java/TestResults/TestResults.xlsx
+++ b/src/test/java/TestResults/TestResults.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="44">
   <si>
     <t>faire-la-connexion;aller-sur-le-site-et-s'identifier</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>20211016234546</t>
+  </si>
+  <si>
+    <t>20211021142247</t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
@@ -1019,6 +1022,20 @@
         <v>42</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/java/TestResults/TestResults.xlsx
+++ b/src/test/java/TestResults/TestResults.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="45">
   <si>
     <t>faire-la-connexion;aller-sur-le-site-et-s'identifier</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>20211021142247</t>
+  </si>
+  <si>
+    <t>20211021221031</t>
   </si>
 </sst>
 </file>
@@ -504,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
@@ -1036,6 +1039,20 @@
         <v>43</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/java/TestResults/TestResults.xlsx
+++ b/src/test/java/TestResults/TestResults.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="46">
   <si>
     <t>faire-la-connexion;aller-sur-le-site-et-s'identifier</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>20211021221031</t>
+  </si>
+  <si>
+    <t>20211021222043</t>
   </si>
 </sst>
 </file>
@@ -507,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
@@ -1053,6 +1056,20 @@
         <v>44</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/java/TestResults/TestResults.xlsx
+++ b/src/test/java/TestResults/TestResults.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="48">
   <si>
     <t>faire-la-connexion;aller-sur-le-site-et-s'identifier</t>
   </si>
@@ -158,6 +158,12 @@
   </si>
   <si>
     <t>20211021222043</t>
+  </si>
+  <si>
+    <t>20220516124433</t>
+  </si>
+  <si>
+    <t>20220516124606</t>
   </si>
 </sst>
 </file>
@@ -510,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
@@ -1070,6 +1076,34 @@
         <v>45</v>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
